--- a/working/dwc-dp-mappings-vocabularies-workbook.xlsx
+++ b/working/dwc-dp-mappings-vocabularies-workbook.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\iSamples\mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\isamples\isamples-darwin-core-mappings\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFC589-B864-40E0-A8CF-E08CF52335C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D8779C-234D-47AC-9118-30BA7BE4EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12432" yWindow="1248" windowWidth="24060" windowHeight="14160" activeTab="1" xr2:uid="{9B96D7B4-5CA4-4E8F-BC37-9CBD9AE4B100}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="30960" windowHeight="12120" xr2:uid="{9B96D7B4-5CA4-4E8F-BC37-9CBD9AE4B100}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contents" sheetId="1" r:id="rId1"/>
     <sheet name="material_type" sheetId="2" r:id="rId2"/>
     <sheet name="material_sample_object_type" sheetId="3" r:id="rId3"/>
     <sheet name="sampled_feature_type" sheetId="4" r:id="rId4"/>
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F57C64-96D6-438B-AB34-C90E76D4B317}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8C8E3-BD0A-48D0-B029-98730C9385D1}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
